--- a/tables/table4_ais.xlsx
+++ b/tables/table4_ais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Bike-Injuries/Manuscript/GitHub/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AF64FDCE8F79A8D366075C52F30AD230408FA0DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3EEE105-4066-4972-A7D7-5C373E4968D4}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_8C67FDCE8F79A8D366075C52F37F02B3AA8DF88F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEE78271-E32E-4DD8-A3DD-C881FE93C142}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>label</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>400083 (43.4)</t>
+  </si>
+  <si>
+    <t>(Missing)</t>
+  </si>
+  <si>
+    <t>0 (0.0)</t>
   </si>
   <si>
     <t>AISSEVERITY</t>
@@ -555,18 +561,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -694,20 +700,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -715,7 +715,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -723,33 +726,33 @@
       <c r="D10" t="s">
         <v>35</v>
       </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -757,13 +760,16 @@
       <c r="D12" t="s">
         <v>40</v>
       </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -772,12 +778,12 @@
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
@@ -786,12 +792,12 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -800,12 +806,12 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -814,69 +820,111 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
+      <c r="E19" t="s">
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
-        <v>36</v>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
